--- a/QMPlusServer/static/template/salaryuser.xlsx
+++ b/QMPlusServer/static/template/salaryuser.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7BC219-832E-4083-97BB-8B10FA7C020C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C39EEED-423E-48FD-9409-6B06E03389FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,14 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入职企业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职企业id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,7 +58,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gogoflying</t>
+    <t>岗位名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,24 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="3" max="6" width="22.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -430,46 +438,53 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{810FFF23-4752-4E7A-BC2F-9143EEEC82B4}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{810FFF23-4752-4E7A-BC2F-9143EEEC82B4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/QMPlusServer/static/template/salaryuser.xlsx
+++ b/QMPlusServer/static/template/salaryuser.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C39EEED-423E-48FD-9409-6B06E03389FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,13 +78,21 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称(与录入数据库名称一致)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,74 +422,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="6" width="22.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="4" max="7" width="22.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{810FFF23-4752-4E7A-BC2F-9143EEEC82B4}"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
